--- a/src/P02_data/T02_af/S12_3_af_loc.xlsx
+++ b/src/P02_data/T02_af/S12_3_af_loc.xlsx
@@ -3814,67 +3814,67 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>31.61</v>
+        <v>48.46571428571428</v>
       </c>
       <c r="C50" t="n">
-        <v>1.869536</v>
+        <v>0.5559619666666666</v>
       </c>
       <c r="D50" t="n">
-        <v>3161</v>
+        <v>4847</v>
       </c>
       <c r="E50" t="n">
-        <v>46.61</v>
+        <v>61.32285714285714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5753914666666666</v>
+        <v>0.8579261333333333</v>
       </c>
       <c r="G50" t="n">
-        <v>4661</v>
+        <v>6132</v>
       </c>
       <c r="H50" t="n">
-        <v>61.61</v>
+        <v>74.17999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8593852666666667</v>
+        <v>1.073160333333333</v>
       </c>
       <c r="J50" t="n">
-        <v>6161</v>
+        <v>7418</v>
       </c>
       <c r="K50" t="n">
-        <v>76.61</v>
+        <v>87.03714285714285</v>
       </c>
       <c r="L50" t="n">
-        <v>1.066586333333333</v>
+        <v>1.145702333333333</v>
       </c>
       <c r="M50" t="n">
-        <v>7661</v>
+        <v>8704</v>
       </c>
       <c r="N50" t="n">
-        <v>91.61</v>
+        <v>99.89428571428572</v>
       </c>
       <c r="O50" t="n">
-        <v>1.170825</v>
+        <v>1.241664666666666</v>
       </c>
       <c r="P50" t="n">
-        <v>9161</v>
+        <v>9989</v>
       </c>
       <c r="Q50" t="n">
-        <v>106.61</v>
+        <v>112.7514285714286</v>
       </c>
       <c r="R50" t="n">
-        <v>1.296661</v>
+        <v>1.338952</v>
       </c>
       <c r="S50" t="n">
-        <v>10661</v>
+        <v>11275</v>
       </c>
       <c r="T50" t="n">
-        <v>121.61</v>
+        <v>125.6085714285714</v>
       </c>
       <c r="U50" t="n">
-        <v>1.360085</v>
+        <v>1.390444</v>
       </c>
       <c r="V50" t="n">
-        <v>12161</v>
+        <v>12561</v>
       </c>
     </row>
     <row r="51">
